--- a/utils/docs/FORMATO_PARA_CARGAR_PRODUCTOS.xlsx
+++ b/utils/docs/FORMATO_PARA_CARGAR_PRODUCTOS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\aistermcon\utils\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18DE3D0-9FBB-4C57-9D39-053DDB7B79F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC15D5D5-D9F5-42F5-B8E4-3E520BBFAAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="225" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -444,6 +444,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -464,27 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,7 +764,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -841,127 +841,132 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:6" ht="22.5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" ht="18">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="18">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="18">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="18">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="18">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" ht="18">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" ht="18">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A7:F7"/>
@@ -969,11 +974,6 @@
     <mergeCell ref="A9:F9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
